--- a/bmd2Samps_v2/data/SuperEndpoint Mapping 2021NOV04.xlsx
+++ b/bmd2Samps_v2/data/SuperEndpoint Mapping 2021NOV04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/bmd2Samps_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{ACEAD2CE-F3FB-441B-BA99-37A330197109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F42805B-E5AC-4B5D-8F00-21E7BDD88949}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{ACEAD2CE-F3FB-441B-BA99-37A330197109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B2DC6C-B2F6-4240-9BCD-55B0692A4EDF}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="1125" windowWidth="21600" windowHeight="12735" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
@@ -532,15 +532,6 @@
     <t>Endpoint</t>
   </si>
   <si>
-    <t>Portal Display</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
     <t>Brain region abnormal in appearance based on color or size at 5 days</t>
   </si>
   <si>
@@ -665,6 +656,15 @@
   </si>
   <si>
     <t>Behavior-transition from light to dark in 5 days</t>
+  </si>
+  <si>
+    <t>IncludeInPortal</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1148,14 +1148,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1414,17 +1414,17 @@
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
   </sheetData>
@@ -1669,13 +1669,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="73.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1717,20 +1717,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0498EF9C-E9A3-468C-A290-DEE17D385575}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1742,71 +1742,71 @@
         <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
@@ -1815,15 +1815,15 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>59</v>
@@ -1832,15 +1832,15 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>60</v>
@@ -1849,32 +1849,32 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>61</v>
@@ -1883,15 +1883,15 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>24</v>
@@ -1900,66 +1900,66 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>211</v>
-      </c>
-      <c r="E14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>169</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>62</v>
@@ -1968,32 +1968,32 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
         <v>175</v>
       </c>
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s">
-        <v>178</v>
-      </c>
       <c r="E16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>63</v>
@@ -2002,32 +2002,32 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>64</v>
@@ -2036,15 +2036,15 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>58</v>
@@ -2056,7 +2056,7 @@
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2080,16 +2080,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -2327,6 +2327,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100396ED2E7A640164CB8C59FDEC2C765CC" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="26e8590940edae28bea0b080f6fa8b06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a9331905dac936d9e88b896f6b901d6" ns3:_="">
     <xsd:import namespace="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3"/>
@@ -2496,35 +2511,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D080FC-E009-4447-ACD6-B9CB0ED3D7DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E57FCB-AF0B-40B5-9F88-8BBFA3B90FEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2546,9 +2536,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E57FCB-AF0B-40B5-9F88-8BBFA3B90FEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D080FC-E009-4447-ACD6-B9CB0ED3D7DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/bmd2Samps_v2/data/SuperEndpoint Mapping 2021NOV04.xlsx
+++ b/bmd2Samps_v2/data/SuperEndpoint Mapping 2021NOV04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/sara_gosline_pnnl_gov/Documents/Documents/GitHub/srpAnalytics/bmd2Samps_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{ACEAD2CE-F3FB-441B-BA99-37A330197109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B2DC6C-B2F6-4240-9BCD-55B0692A4EDF}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{ACEAD2CE-F3FB-441B-BA99-37A330197109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1753B603-0762-DD4D-8312-BBBF0878F430}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="2560" windowWidth="23460" windowHeight="17060" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="217">
   <si>
     <t>New Endpoints</t>
   </si>
@@ -665,6 +665,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>AUC2</t>
+  </si>
+  <si>
+    <t>AUC3</t>
+  </si>
+  <si>
+    <t>AUC4</t>
+  </si>
+  <si>
+    <t>PE_</t>
+  </si>
+  <si>
+    <t>TR_</t>
   </si>
 </sst>
 </file>
@@ -771,14 +786,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -790,7 +805,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1148,14 +1162,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1183,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1227,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1224,7 +1238,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -1246,7 +1260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -1279,7 +1293,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1326,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1337,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -1334,7 +1348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -1345,7 +1359,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1356,7 +1370,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1381,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -1378,7 +1392,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -1389,7 +1403,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1414,30 +1428,30 @@
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1451,7 +1465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1569,7 +1583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1587,7 +1601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1623,7 +1637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1650,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1663,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
   </sheetData>
@@ -1669,13 +1683,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1697,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1691,7 +1705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1699,7 +1713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1715,20 +1729,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0498EF9C-E9A3-468C-A290-DEE17D385575}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>209</v>
       </c>
@@ -1745,7 +1759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -1759,7 +1773,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>210</v>
       </c>
@@ -1787,7 +1801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -1797,274 +1811,418 @@
       <c r="C5" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>168</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>210</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>208</v>
+      <c r="B14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>172</v>
+        <v>183</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>211</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>210</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>69</v>
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>196</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
-    <sortCondition ref="B2:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+    <sortCondition ref="B2:B30"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{F4F80936-7DCC-48C0-940B-84C684D4BFC4}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F4F80936-7DCC-48C0-940B-84C684D4BFC4}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{64B05187-2FCA-467B-A46E-0431E403DB9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2080,16 +2238,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -2100,7 +2258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2111,7 +2269,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2122,7 +2280,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2133,7 +2291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2144,7 +2302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2155,7 +2313,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -2166,7 +2324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -2177,7 +2335,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2343,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2196,7 +2354,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -2207,7 +2365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -2218,7 +2376,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -2229,7 +2387,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -2260,7 +2418,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2271,7 +2429,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -2282,7 +2440,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2293,7 +2451,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2307,7 +2465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -2327,21 +2485,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100396ED2E7A640164CB8C59FDEC2C765CC" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="26e8590940edae28bea0b080f6fa8b06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a9331905dac936d9e88b896f6b901d6" ns3:_="">
     <xsd:import namespace="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3"/>
@@ -2511,31 +2654,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E57FCB-AF0B-40B5-9F88-8BBFA3B90FEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565D9DA6-2D7C-4976-B32E-584E4A2A7F7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D080FC-E009-4447-ACD6-B9CB0ED3D7DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2551,4 +2685,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565D9DA6-2D7C-4976-B32E-584E4A2A7F7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aceb4bc4-7be6-4130-8e8a-7008d72bfcc3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49E57FCB-AF0B-40B5-9F88-8BBFA3B90FEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>